--- a/GDP_constant_1994.xlsx
+++ b/GDP_constant_1994.xlsx
@@ -27,7 +27,7 @@
     <definedName name="IMPRESION">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">srea1_004!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913" iterateCount="141"/>
 </workbook>
 </file>
 
@@ -257,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -283,6 +283,11 @@
     <font>
       <sz val="10"/>
       <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -439,10 +444,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -516,9 +522,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -823,8 +831,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:BS24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="BI21" sqref="BI21:BS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -833,17 +841,17 @@
     <col min="2" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="31" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="12" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="31" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="12" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12" style="31" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="12" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12" style="31" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="12" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12" style="31" customWidth="1"/>
+    <col min="31" max="31" width="13.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="12" style="1" customWidth="1"/>
-    <col min="36" max="36" width="12" style="31" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="37" max="40" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12.7109375" style="33" customWidth="1"/>
     <col min="42" max="43" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -858,7 +866,7 @@
     <col min="57" max="65" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="67" max="70" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="72" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -4743,6 +4751,9 @@
       <c r="U21" s="32"/>
       <c r="Z21" s="32"/>
       <c r="AE21" s="32"/>
+      <c r="BI21" s="37"/>
+      <c r="BN21" s="37"/>
+      <c r="BS21" s="37"/>
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
